--- a/InputData/trans/EoDfVUwFC/Elast of Demand for Veh Use wrt Fuel Cost.xlsx
+++ b/InputData/trans/EoDfVUwFC/Elast of Demand for Veh Use wrt Fuel Cost.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\EoDfVUwFC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/pa/trans/eodfvuwfc/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D806203-3F4D-734D-9A36-4AE45F1AA396}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13935"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -18,7 +19,18 @@
     <sheet name="Rail and Ships" sheetId="3" r:id="rId4"/>
     <sheet name="EoDfVUwFC" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -256,7 +268,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -315,7 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -333,10 +345,11 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -618,24 +631,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="92" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="11">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -643,214 +659,214 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>2010</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <v>2008</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>2007</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
         <v>2007</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B21" r:id="rId1"/>
-    <hyperlink ref="B28" r:id="rId2"/>
-    <hyperlink ref="B35" r:id="rId3"/>
-    <hyperlink ref="B42" r:id="rId4"/>
-    <hyperlink ref="B14" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B28" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B35" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B42" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
@@ -858,34 +874,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -893,7 +909,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -908,24 +924,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="36.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -933,7 +949,7 @@
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -941,7 +957,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -950,32 +966,32 @@
         <v>-0.29360000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -986,32 +1002,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="16.42578125" customWidth="1"/>
+    <col min="1" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
@@ -1021,17 +1037,17 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="10" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1051,7 +1067,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1071,7 +1087,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1091,7 +1107,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1111,7 +1127,7 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1131,7 +1147,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1151,7 +1167,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1171,7 +1187,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1191,7 +1207,7 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1211,7 +1227,7 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1231,17 +1247,17 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1250,7 +1266,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -1259,17 +1275,17 @@
         <v>-0.15000000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -1287,7 +1303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -1297,21 +1313,21 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1320,7 +1336,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1329,7 +1345,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -1338,7 +1354,7 @@
         <v>-0.29360000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1347,7 +1363,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1356,7 +1372,7 @@
         <v>-0.15000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>67</v>
       </c>

--- a/InputData/trans/EoDfVUwFC/Elast of Demand for Veh Use wrt Fuel Cost.xlsx
+++ b/InputData/trans/EoDfVUwFC/Elast of Demand for Veh Use wrt Fuel Cost.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/pa/trans/eodfvuwfc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/trans/eodfvuwfc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D806203-3F4D-734D-9A36-4AE45F1AA396}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37688688-E655-6A49-BA92-BF2AB4C33A59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,10 +347,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -647,7 +647,7 @@
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="12">
         <v>44307</v>
       </c>
     </row>
@@ -1038,14 +1038,14 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
